--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -1082,7 +1082,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-01 18:05:00</t>
+          <t>2025-11-03 19:33:39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,11 +443,6 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Percentage</t>
         </is>
       </c>
@@ -459,9 +454,6 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2056</v>
-      </c>
-      <c r="C2" t="n">
         <v>37.5</v>
       </c>
     </row>
@@ -472,9 +464,6 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2558</v>
-      </c>
-      <c r="C3" t="n">
         <v>46.6</v>
       </c>
     </row>
@@ -485,9 +474,6 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873</v>
-      </c>
-      <c r="C4" t="n">
         <v>15.9</v>
       </c>
     </row>
@@ -1082,7 +1068,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-03 19:33:39</t>
+          <t>2025-11-10 14:59:15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.2</v>
+        <v>44.1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.9</v>
+        <v>44.1</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.2</v>
+        <v>42.1</v>
       </c>
       <c r="C11" t="n">
-        <v>32.4</v>
+        <v>34.2</v>
       </c>
       <c r="D11" t="n">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="12">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.2</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
-        <v>32.1</v>
+        <v>33.3</v>
       </c>
       <c r="D17" t="n">
         <v>3.7</v>
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="C18" t="n">
-        <v>41.6</v>
+        <v>40.7</v>
       </c>
       <c r="D18" t="n">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="19">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="C21" t="n">
-        <v>41</v>
+        <v>41.5</v>
       </c>
       <c r="D21" t="n">
         <v>19</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="C22" t="n">
-        <v>58.1</v>
+        <v>58.4</v>
       </c>
       <c r="D22" t="n">
         <v>15.5</v>
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.3</v>
+        <v>25.3</v>
       </c>
       <c r="C24" t="n">
-        <v>60</v>
+        <v>61.1</v>
       </c>
       <c r="D24" t="n">
         <v>13.7</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>47.7</v>
       </c>
       <c r="C25" t="n">
-        <v>42.3</v>
+        <v>41.6</v>
       </c>
       <c r="D25" t="n">
         <v>10.7</v>
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="C27" t="n">
-        <v>61</v>
+        <v>61.3</v>
       </c>
       <c r="D27" t="n">
         <v>14.3</v>
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="C28" t="n">
-        <v>63.5</v>
+        <v>63.8</v>
       </c>
       <c r="D28" t="n">
         <v>12.1</v>
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.7</v>
+        <v>47.3</v>
       </c>
       <c r="C30" t="n">
         <v>34.4</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44</v>
+        <v>43.6</v>
       </c>
       <c r="C31" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D31" t="n">
         <v>15.4</v>
@@ -1068,7 +1068,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-10 14:59:15</t>
+          <t>2025-11-10 15:14:08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -1068,7 +1068,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-10 15:14:08</t>
+          <t>2025-11-10 15:53:23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -1068,7 +1068,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-10 15:53:23</t>
+          <t>2025-11-10 17:31:33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/charts/p10/p10_data.xlsx
+++ b/charts/p10/p10_data.xlsx
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.1</v>
+        <v>3.5</v>
       </c>
       <c r="C2" t="n">
-        <v>44.1</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.7</v>
+        <v>16.1</v>
       </c>
       <c r="C3" t="n">
-        <v>33.9</v>
+        <v>13.8</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="4">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.4</v>
+        <v>3.3</v>
       </c>
       <c r="C4" t="n">
-        <v>54.5</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29.5</v>
+        <v>4.2</v>
       </c>
       <c r="C5" t="n">
-        <v>62.3</v>
+        <v>8.9</v>
       </c>
       <c r="D5" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -589,13 +589,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.7</v>
+        <v>5.6</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7">
@@ -605,13 +605,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.6</v>
+        <v>6.5</v>
       </c>
       <c r="C7" t="n">
-        <v>55.1</v>
+        <v>12.6</v>
       </c>
       <c r="D7" t="n">
-        <v>16.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -621,13 +621,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.9</v>
+        <v>4.9</v>
       </c>
       <c r="C8" t="n">
-        <v>48.7</v>
+        <v>8.9</v>
       </c>
       <c r="D8" t="n">
-        <v>24.4</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37.7</v>
+        <v>6.8</v>
       </c>
       <c r="C9" t="n">
-        <v>45.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>16.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.3</v>
+        <v>5.8</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3</v>
+        <v>6.8</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.1</v>
+        <v>3.7</v>
       </c>
       <c r="C11" t="n">
-        <v>34.2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>23.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="12">
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>3.5</v>
       </c>
       <c r="C12" t="n">
-        <v>56.7</v>
+        <v>7.9</v>
       </c>
       <c r="D12" t="n">
-        <v>18.3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="13">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.7</v>
+        <v>14.2</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2</v>
+        <v>16.3</v>
       </c>
       <c r="D13" t="n">
-        <v>19.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>48.5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>15.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.2</v>
+        <v>6.1</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3</v>
+        <v>9.1</v>
       </c>
       <c r="D15" t="n">
-        <v>24.4</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="16">
@@ -749,13 +749,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>47.8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
@@ -765,13 +765,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>33.3</v>
+        <v>6.3</v>
       </c>
       <c r="D17" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="18">
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.4</v>
+        <v>8.4</v>
       </c>
       <c r="C18" t="n">
-        <v>40.7</v>
+        <v>7.7</v>
       </c>
       <c r="D18" t="n">
-        <v>14.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>9.1</v>
       </c>
       <c r="C19" t="n">
-        <v>81.7</v>
+        <v>52.9</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="20">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32.5</v>
+        <v>5.8</v>
       </c>
       <c r="C20" t="n">
-        <v>51.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>15.6</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>39.5</v>
+        <v>18.9</v>
       </c>
       <c r="C21" t="n">
-        <v>41.5</v>
+        <v>19.8</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.1</v>
+        <v>24.2</v>
       </c>
       <c r="C22" t="n">
-        <v>58.4</v>
+        <v>54.3</v>
       </c>
       <c r="D22" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.5</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>29.1</v>
+        <v>51.5</v>
       </c>
       <c r="D23" t="n">
-        <v>14.4</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="24">
@@ -877,13 +877,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25.3</v>
+        <v>5.6</v>
       </c>
       <c r="C24" t="n">
-        <v>61.1</v>
+        <v>13.5</v>
       </c>
       <c r="D24" t="n">
-        <v>13.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.7</v>
+        <v>16.6</v>
       </c>
       <c r="C25" t="n">
-        <v>41.6</v>
+        <v>14.5</v>
       </c>
       <c r="D25" t="n">
-        <v>10.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.5</v>
+        <v>21.4</v>
       </c>
       <c r="C26" t="n">
-        <v>36.5</v>
+        <v>26.6</v>
       </c>
       <c r="D26" t="n">
-        <v>34</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="27">
@@ -925,13 +925,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.3</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>61.3</v>
+        <v>42.9</v>
       </c>
       <c r="D27" t="n">
-        <v>14.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -941,13 +941,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.1</v>
+        <v>33.6</v>
       </c>
       <c r="C28" t="n">
-        <v>63.8</v>
+        <v>88.8</v>
       </c>
       <c r="D28" t="n">
-        <v>12.1</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="29">
@@ -957,13 +957,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>54.2</v>
+        <v>38.9</v>
       </c>
       <c r="C29" t="n">
-        <v>30.8</v>
+        <v>22.1</v>
       </c>
       <c r="D29" t="n">
-        <v>14.9</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="30">
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>47.3</v>
+        <v>28.2</v>
       </c>
       <c r="C30" t="n">
-        <v>34.4</v>
+        <v>20.5</v>
       </c>
       <c r="D30" t="n">
-        <v>18.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -989,13 +989,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.6</v>
+        <v>23.8</v>
       </c>
       <c r="C31" t="n">
-        <v>41</v>
+        <v>22.4</v>
       </c>
       <c r="D31" t="n">
-        <v>15.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="32">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.5</v>
+        <v>13.1</v>
       </c>
       <c r="C32" t="n">
-        <v>41.5</v>
+        <v>13.1</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,11 +1064,16 @@
           <t>Total_Records</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LineNormalization</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-11-10 17:31:33</t>
+          <t>2025-11-13 21:01:42</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1093,6 +1098,11 @@
       </c>
       <c r="F2" t="n">
         <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>IndexGlobal</t>
+        </is>
       </c>
     </row>
   </sheetData>
